--- a/server/reports/DATAFILE.xlsx
+++ b/server/reports/DATAFILE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -52,58 +52,25 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Danial</t>
-  </si>
-  <si>
     <t>Adnan Ali</t>
   </si>
   <si>
-    <t>Akber</t>
-  </si>
-  <si>
-    <t>Research</t>
-  </si>
-  <si>
     <t>Bug Fixes</t>
   </si>
   <si>
+    <t>Worked on Next JS</t>
+  </si>
+  <si>
+    <t>Helped Akber</t>
+  </si>
+  <si>
     <t>Documentation Of SellerXperts</t>
   </si>
   <si>
     <t>adnan</t>
   </si>
   <si>
-    <t>Helped Mithan</t>
-  </si>
-  <si>
-    <t>Server issue resolved</t>
-  </si>
-  <si>
-    <t>Helped Mubasshir</t>
-  </si>
-  <si>
-    <t>Front End Work</t>
-  </si>
-  <si>
-    <t>Worked on Next JS</t>
-  </si>
-  <si>
-    <t>Helped Akber</t>
-  </si>
-  <si>
-    <t>Database Created</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-  <si>
-    <t>Created Timesheet modules</t>
-  </si>
-  <si>
     <t>Meeting for new project</t>
-  </si>
-  <si>
-    <t>Meeting with Rafay</t>
   </si>
 </sst>
 </file>
@@ -461,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,10 +465,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -512,16 +479,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -529,19 +496,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -549,19 +516,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -569,7 +536,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -578,7 +545,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -592,216 +559,16 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8">
         <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/server/reports/DATAFILE.xlsx
+++ b/server/reports/DATAFILE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -31,46 +31,34 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>2021/09/15</t>
-  </si>
-  <si>
-    <t>2021/09/16</t>
-  </si>
-  <si>
-    <t>2021/09/17</t>
-  </si>
-  <si>
     <t>2021/09/21</t>
   </si>
   <si>
+    <t>2021/09/22</t>
+  </si>
+  <si>
     <t>SellerXperts</t>
   </si>
   <si>
-    <t>GCE Japan</t>
-  </si>
-  <si>
-    <t>Other</t>
+    <t>Danial</t>
+  </si>
+  <si>
+    <t>Akber</t>
   </si>
   <si>
     <t>Adnan Ali</t>
   </si>
   <si>
-    <t>Bug Fixes</t>
-  </si>
-  <si>
-    <t>Worked on Next JS</t>
-  </si>
-  <si>
-    <t>Helped Akber</t>
-  </si>
-  <si>
-    <t>Documentation Of SellerXperts</t>
-  </si>
-  <si>
-    <t>adnan</t>
-  </si>
-  <si>
-    <t>Meeting for new project</t>
+    <t>Helped Mithan</t>
+  </si>
+  <si>
+    <t>Server issue resolved</t>
+  </si>
+  <si>
+    <t>Helped Mubasshir</t>
+  </si>
+  <si>
+    <t>Meeting</t>
   </si>
 </sst>
 </file>
@@ -428,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,16 +447,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -479,16 +467,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
       <c r="F3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -499,13 +487,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -519,55 +507,15 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7">
         <v>1</v>
       </c>
     </row>

--- a/server/reports/DATAFILE.xlsx
+++ b/server/reports/DATAFILE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -31,6 +31,15 @@
     <t>Hours</t>
   </si>
   <si>
+    <t>2021/09/15</t>
+  </si>
+  <si>
+    <t>2021/09/16</t>
+  </si>
+  <si>
+    <t>2021/09/17</t>
+  </si>
+  <si>
     <t>2021/09/21</t>
   </si>
   <si>
@@ -40,22 +49,31 @@
     <t>SellerXperts</t>
   </si>
   <si>
-    <t>Danial</t>
-  </si>
-  <si>
-    <t>Akber</t>
+    <t>GCE Japan</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t>Adnan Ali</t>
   </si>
   <si>
-    <t>Helped Mithan</t>
-  </si>
-  <si>
-    <t>Server issue resolved</t>
-  </si>
-  <si>
-    <t>Helped Mubasshir</t>
+    <t>Bug Fixes</t>
+  </si>
+  <si>
+    <t>Worked on Next JS</t>
+  </si>
+  <si>
+    <t>Helped Akber</t>
+  </si>
+  <si>
+    <t>Documentation Of SellerXperts</t>
+  </si>
+  <si>
+    <t>adnan</t>
+  </si>
+  <si>
+    <t>Meeting for new project</t>
   </si>
   <si>
     <t>Meeting</t>
@@ -416,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,16 +465,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -467,16 +485,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -487,13 +505,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -507,15 +525,75 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5">
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
     </row>

--- a/server/reports/DATAFILE.xlsx
+++ b/server/reports/DATAFILE.xlsx
@@ -13,86 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>2021/09/15</t>
-  </si>
-  <si>
-    <t>2021/09/16</t>
-  </si>
-  <si>
-    <t>2021/09/17</t>
-  </si>
-  <si>
-    <t>2021/09/21</t>
-  </si>
-  <si>
-    <t>2021/09/22</t>
-  </si>
-  <si>
-    <t>SellerXperts</t>
-  </si>
-  <si>
-    <t>GCE Japan</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Adnan Ali</t>
-  </si>
-  <si>
-    <t>Bug Fixes</t>
-  </si>
-  <si>
-    <t>Worked on Next JS</t>
-  </si>
-  <si>
-    <t>Helped Akber</t>
-  </si>
-  <si>
-    <t>Documentation Of SellerXperts</t>
-  </si>
-  <si>
-    <t>adnan</t>
-  </si>
-  <si>
-    <t>Meeting for new project</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,7 +32,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -116,30 +40,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,170 +340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>